--- a/Oscar Winner Data.xlsx
+++ b/Oscar Winner Data.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="27690" windowHeight="12795" xr2:uid="{F438A726-9522-46C6-AF82-BFB1BD1CC4E7}"/>
+    <workbookView xWindow="5550" yWindow="0" windowWidth="27690" windowHeight="12795" xr2:uid="{F438A726-9522-46C6-AF82-BFB1BD1CC4E7}"/>
   </bookViews>
   <sheets>
     <sheet name="BestPicture" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BestPicture!$A$1:$U$142</definedName>
+  </definedNames>
   <calcPr calcId="171027" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -510,6 +513,9 @@
   </si>
   <si>
     <t>WGA.Adapted</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -865,10 +871,10 @@
   <dimension ref="A1:U142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C10"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9488,8 +9494,8 @@
       <c r="O133" s="1">
         <v>1</v>
       </c>
-      <c r="P133" s="1">
-        <v>2</v>
+      <c r="P133" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="Q133" s="1">
         <v>2</v>
@@ -10093,6 +10099,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U142" xr:uid="{D38070EA-BD31-4CB5-A85A-FA330C9387FD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Oscar Winner Data.xlsx
+++ b/Oscar Winner Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="0" windowWidth="27690" windowHeight="12795" xr2:uid="{F438A726-9522-46C6-AF82-BFB1BD1CC4E7}"/>
+    <workbookView xWindow="6660" yWindow="0" windowWidth="27690" windowHeight="12795" xr2:uid="{F438A726-9522-46C6-AF82-BFB1BD1CC4E7}"/>
   </bookViews>
   <sheets>
     <sheet name="BestPicture" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BestPicture!$A$1:$U$142</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -513,9 +513,6 @@
   </si>
   <si>
     <t>WGA.Adapted</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -871,10 +868,10 @@
   <dimension ref="A1:U142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="P133" sqref="P133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9494,8 +9491,8 @@
       <c r="O133" s="1">
         <v>1</v>
       </c>
-      <c r="P133" s="1" t="s">
-        <v>162</v>
+      <c r="P133" s="1">
+        <v>2</v>
       </c>
       <c r="Q133" s="1">
         <v>2</v>

--- a/Oscar Winner Data.xlsx
+++ b/Oscar Winner Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="0" windowWidth="27690" windowHeight="12795" xr2:uid="{F438A726-9522-46C6-AF82-BFB1BD1CC4E7}"/>
+    <workbookView xWindow="7770" yWindow="0" windowWidth="27690" windowHeight="12795" xr2:uid="{F438A726-9522-46C6-AF82-BFB1BD1CC4E7}"/>
   </bookViews>
   <sheets>
     <sheet name="BestPicture" sheetId="1" r:id="rId1"/>
@@ -868,10 +868,10 @@
   <dimension ref="A1:U142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P133" sqref="P133"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
